--- a/biology/Zoologie/Circomphalus_foliaceolamellosus/Circomphalus_foliaceolamellosus.xlsx
+++ b/biology/Zoologie/Circomphalus_foliaceolamellosus/Circomphalus_foliaceolamellosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Circomphalus foliaceolamellosus est une espèce de mollusques bivalves de la famille des Veneridae.
 Valve droite et gauche du même spécimen:
@@ -514,7 +526,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Venus foliaceolamellosa Dillwyn, 1817
 Venus plicata Gmelin, 1791
@@ -546,7 +560,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce coquillage figure sur une émission de l'Angola de 1974 (0,50 $) avec la légende Venus foliaceo lamellosa Schröter.
 Sur les autres projets Wikimedia :
@@ -579,7 +595,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr + en) Référence EOL : Circomphalus foliaceolamellosus
  Portail des mollusques et de la malacologie                     </t>
